--- a/simulation_data/iterative_algorithm/i_error_level_2_percent_water_99.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_2_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.4449110321666</v>
+        <v>89.94921113060953</v>
       </c>
       <c r="D2" t="n">
-        <v>4.940970976382487</v>
+        <v>4.921767455535959</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.51037286924137</v>
+        <v>89.34820483747016</v>
       </c>
       <c r="D3" t="n">
-        <v>4.988119523035121</v>
+        <v>4.483605171137482</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.18744932542411</v>
+        <v>87.68981608138489</v>
       </c>
       <c r="D4" t="n">
-        <v>5.07131143205406</v>
+        <v>4.686281439077947</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.1996165770924</v>
+        <v>86.96710856824239</v>
       </c>
       <c r="D5" t="n">
-        <v>5.580757802118174</v>
+        <v>4.41458007660708</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.07281138396955</v>
+        <v>85.81322416828745</v>
       </c>
       <c r="D6" t="n">
-        <v>5.534898113668336</v>
+        <v>5.191966273647491</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.30995884589306</v>
+        <v>84.91395718019676</v>
       </c>
       <c r="D7" t="n">
-        <v>5.188453514024055</v>
+        <v>4.773524741661728</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.62427847107439</v>
+        <v>83.58497592906774</v>
       </c>
       <c r="D8" t="n">
-        <v>5.471214118767286</v>
+        <v>5.080698946368419</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.05890808179448</v>
+        <v>83.24338195990036</v>
       </c>
       <c r="D9" t="n">
-        <v>5.522953854865051</v>
+        <v>4.817827285766269</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.30333395928231</v>
+        <v>81.64747647063543</v>
       </c>
       <c r="D10" t="n">
-        <v>5.598095073384929</v>
+        <v>4.777483471342085</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.94420659081062</v>
+        <v>80.6869924403193</v>
       </c>
       <c r="D11" t="n">
-        <v>5.40774041888506</v>
+        <v>4.789840356130786</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.61336910090282</v>
+        <v>79.93223608779689</v>
       </c>
       <c r="D12" t="n">
-        <v>4.771770461057332</v>
+        <v>5.438657458750075</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.66900672598688</v>
+        <v>79.19264264278272</v>
       </c>
       <c r="D13" t="n">
-        <v>5.253659087827274</v>
+        <v>5.640419512925916</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.28065893939447</v>
+        <v>78.57237643118486</v>
       </c>
       <c r="D14" t="n">
-        <v>4.626189142200858</v>
+        <v>5.459802676536738</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.50188342012228</v>
+        <v>77.4967136306974</v>
       </c>
       <c r="D15" t="n">
-        <v>5.141485454947395</v>
+        <v>4.81469723150644</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.96775338013033</v>
+        <v>76.18748519677419</v>
       </c>
       <c r="D16" t="n">
-        <v>5.607958186344637</v>
+        <v>5.234022706317341</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.66752610858191</v>
+        <v>74.6120644507717</v>
       </c>
       <c r="D17" t="n">
-        <v>4.894142555248006</v>
+        <v>4.515320310593022</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.49503263996971</v>
+        <v>74.27933576170594</v>
       </c>
       <c r="D18" t="n">
-        <v>5.03586126730428</v>
+        <v>4.623871078742897</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.68712348632783</v>
+        <v>73.31403466869621</v>
       </c>
       <c r="D19" t="n">
-        <v>5.21215836222536</v>
+        <v>5.179388874053654</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.01331631660733</v>
+        <v>72.33614652455709</v>
       </c>
       <c r="D20" t="n">
-        <v>5.342464081774142</v>
+        <v>4.684672514883849</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.86288366001509</v>
+        <v>72.54598156187407</v>
       </c>
       <c r="D21" t="n">
-        <v>5.640489551247196</v>
+        <v>4.897897519281684</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.01797327513157</v>
+        <v>69.92677677340605</v>
       </c>
       <c r="D22" t="n">
-        <v>5.375353778813543</v>
+        <v>4.7937644537218</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.35478414206746</v>
+        <v>68.8479737476673</v>
       </c>
       <c r="D23" t="n">
-        <v>5.272112448299423</v>
+        <v>5.206645375898353</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.46917464380368</v>
+        <v>68.24881164191567</v>
       </c>
       <c r="D24" t="n">
-        <v>4.589621944883561</v>
+        <v>4.313082684630517</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.10841111086987</v>
+        <v>67.29526277369733</v>
       </c>
       <c r="D25" t="n">
-        <v>5.128708860261637</v>
+        <v>5.174922179460941</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.90143421533807</v>
+        <v>66.10067667215615</v>
       </c>
       <c r="D26" t="n">
-        <v>5.349841480965927</v>
+        <v>4.971210601271169</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.84889620598436</v>
+        <v>65.45406127247307</v>
       </c>
       <c r="D27" t="n">
-        <v>5.220103681672835</v>
+        <v>4.776576351332489</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.7489044219461</v>
+        <v>64.15908030185682</v>
       </c>
       <c r="D28" t="n">
-        <v>4.820865574566648</v>
+        <v>4.787912797132434</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.60707655240007</v>
+        <v>63.16986074889662</v>
       </c>
       <c r="D29" t="n">
-        <v>5.092359430271681</v>
+        <v>5.101032107129432</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.94705706052897</v>
+        <v>62.53281464466203</v>
       </c>
       <c r="D30" t="n">
-        <v>4.738995718467163</v>
+        <v>4.99083018598023</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.53896188172854</v>
+        <v>60.55664012982265</v>
       </c>
       <c r="D31" t="n">
-        <v>5.261579751822938</v>
+        <v>4.679208147333984</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.37173574290828</v>
+        <v>60.25327584657335</v>
       </c>
       <c r="D32" t="n">
-        <v>5.400647004340716</v>
+        <v>4.6489833882898</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.76829969516968</v>
+        <v>58.98313011958803</v>
       </c>
       <c r="D33" t="n">
-        <v>5.117115124454932</v>
+        <v>4.910266473739385</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.33104076795882</v>
+        <v>57.8450373552187</v>
       </c>
       <c r="D34" t="n">
-        <v>5.006391927446046</v>
+        <v>4.878651162193487</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.08939793112234</v>
+        <v>56.681425722437</v>
       </c>
       <c r="D35" t="n">
-        <v>4.974587992993378</v>
+        <v>4.821584777972117</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.07716564889402</v>
+        <v>56.57489530864382</v>
       </c>
       <c r="D36" t="n">
-        <v>4.987607967766665</v>
+        <v>4.913302377387922</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.17991153847579</v>
+        <v>55.05383158816642</v>
       </c>
       <c r="D37" t="n">
-        <v>4.978936597721711</v>
+        <v>5.359493166093443</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.52716368413795</v>
+        <v>53.93511199858943</v>
       </c>
       <c r="D38" t="n">
-        <v>5.884626855132262</v>
+        <v>4.637114341442214</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.9090656769313</v>
+        <v>53.07315544580376</v>
       </c>
       <c r="D39" t="n">
-        <v>4.781069203496487</v>
+        <v>4.459121893772113</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.80738952015518</v>
+        <v>51.56649445837404</v>
       </c>
       <c r="D40" t="n">
-        <v>4.854485289025007</v>
+        <v>4.717488755253195</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.90763992058318</v>
+        <v>50.68379538519932</v>
       </c>
       <c r="D41" t="n">
-        <v>5.358447319554247</v>
+        <v>5.259694859414946</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.34285227237071</v>
+        <v>51.19844215300687</v>
       </c>
       <c r="D42" t="n">
-        <v>5.263368779825052</v>
+        <v>4.683084126956933</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.52085245977608</v>
+        <v>48.66184960083319</v>
       </c>
       <c r="D43" t="n">
-        <v>5.533365871409466</v>
+        <v>5.280474777082777</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.12201287272703</v>
+        <v>47.68844065951043</v>
       </c>
       <c r="D44" t="n">
-        <v>5.586398392247968</v>
+        <v>4.366596958923052</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.06487381790041</v>
+        <v>47.80436499980081</v>
       </c>
       <c r="D45" t="n">
-        <v>5.290624869050927</v>
+        <v>4.921577189355004</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.27883263714631</v>
+        <v>46.23797322418778</v>
       </c>
       <c r="D46" t="n">
-        <v>5.413019181704951</v>
+        <v>5.332437822853286</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.63150410273037</v>
+        <v>45.67240853002672</v>
       </c>
       <c r="D47" t="n">
-        <v>5.136627283584232</v>
+        <v>5.295942324487927</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.96967158821421</v>
+        <v>44.02680994923188</v>
       </c>
       <c r="D48" t="n">
-        <v>4.392934842032083</v>
+        <v>4.679720548363659</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.00160915895296</v>
+        <v>43.61501023218877</v>
       </c>
       <c r="D49" t="n">
-        <v>5.003100944935477</v>
+        <v>4.832908991876586</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.31698638354634</v>
+        <v>41.15347051399115</v>
       </c>
       <c r="D50" t="n">
-        <v>4.459637031587719</v>
+        <v>4.506394223268437</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.6592170641923</v>
+        <v>40.18185978931135</v>
       </c>
       <c r="D51" t="n">
-        <v>4.538038856003545</v>
+        <v>5.72326385748576</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.97119919922562</v>
+        <v>39.26016204931459</v>
       </c>
       <c r="D52" t="n">
-        <v>5.516650282079765</v>
+        <v>4.725957399062986</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.76046928073258</v>
+        <v>39.59362291081992</v>
       </c>
       <c r="D53" t="n">
-        <v>4.734204020406675</v>
+        <v>5.434853685539146</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.80773905452132</v>
+        <v>37.6591466074976</v>
       </c>
       <c r="D54" t="n">
-        <v>5.611467489060237</v>
+        <v>5.378757778199691</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.57107172424457</v>
+        <v>36.32869678967081</v>
       </c>
       <c r="D55" t="n">
-        <v>5.289852240226564</v>
+        <v>5.395155457306492</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.96644853741279</v>
+        <v>35.25662311862572</v>
       </c>
       <c r="D56" t="n">
-        <v>5.218030160112305</v>
+        <v>4.605490736130649</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.0094381230682</v>
+        <v>35.02917980332871</v>
       </c>
       <c r="D57" t="n">
-        <v>5.825679274782297</v>
+        <v>5.500621915575096</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.96844210333681</v>
+        <v>33.5481860393411</v>
       </c>
       <c r="D58" t="n">
-        <v>5.42562504769796</v>
+        <v>4.686915635434917</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.12363067640439</v>
+        <v>32.91903054167032</v>
       </c>
       <c r="D59" t="n">
-        <v>5.822834397005089</v>
+        <v>4.963299498313833</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.42339455303194</v>
+        <v>32.99038538303924</v>
       </c>
       <c r="D60" t="n">
-        <v>5.137877041152734</v>
+        <v>5.091423716132419</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.97944916736898</v>
+        <v>30.72418771098749</v>
       </c>
       <c r="D61" t="n">
-        <v>6.106980280630073</v>
+        <v>4.914979852636618</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.95262017814864</v>
+        <v>30.04782612273198</v>
       </c>
       <c r="D62" t="n">
-        <v>4.670411601698025</v>
+        <v>5.358717077549848</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.44162871411939</v>
+        <v>28.35647661690699</v>
       </c>
       <c r="D63" t="n">
-        <v>5.047354993053327</v>
+        <v>5.284500389041864</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.17632183974302</v>
+        <v>28.74263613969342</v>
       </c>
       <c r="D64" t="n">
-        <v>4.883132517425998</v>
+        <v>5.216565913144736</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.33394314889121</v>
+        <v>26.93928964353278</v>
       </c>
       <c r="D65" t="n">
-        <v>5.299039977356472</v>
+        <v>4.705584329637257</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.08198155229046</v>
+        <v>26.13885019712362</v>
       </c>
       <c r="D66" t="n">
-        <v>5.113516879166164</v>
+        <v>4.889098878442464</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.27632978449224</v>
+        <v>25.84068661077049</v>
       </c>
       <c r="D67" t="n">
-        <v>4.962932384056829</v>
+        <v>5.590631418568665</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.45949290336758</v>
+        <v>23.646330730987</v>
       </c>
       <c r="D68" t="n">
-        <v>5.265164429648157</v>
+        <v>4.953758133855931</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.91233560955293</v>
+        <v>22.77399028576942</v>
       </c>
       <c r="D69" t="n">
-        <v>5.479694093659799</v>
+        <v>5.346830224547493</v>
       </c>
     </row>
   </sheetData>
